--- a/artfynd/Björnberget N artfynd.xlsx
+++ b/artfynd/Björnberget N artfynd.xlsx
@@ -1588,45 +1588,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69298999</v>
+        <v>56822967</v>
       </c>
       <c r="B11" t="n">
-        <v>91406</v>
+        <v>95594</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1503</v>
+        <v>2809</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Björnberget norr, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>685500</v>
+        <v>685697</v>
       </c>
       <c r="R11" t="n">
-        <v>7093566</v>
+        <v>7093433</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1653,17 +1653,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-09-02</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-09-02</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Observerad och artbestämd av Ulrika Westling. Inrapporterad av Johan Kjetselberg.</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1678,80 +1673,62 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56822967</v>
+        <v>69298999</v>
       </c>
       <c r="B12" t="n">
-        <v>95594</v>
+        <v>91406</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2809</v>
+        <v>1503</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Björnberget norr, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>685697</v>
+        <v>685500</v>
       </c>
       <c r="R12" t="n">
-        <v>7093433</v>
+        <v>7093566</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1778,12 +1755,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2017-09-02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2017-09-02</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Observerad och artbestämd av Ulrika Westling. Inrapporterad av Johan Kjetselberg.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1798,17 +1780,35 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>69298997</v>
+        <v>69298998</v>
       </c>
       <c r="B14" t="n">
-        <v>78647</v>
+        <v>5492</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>101410</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>685558</v>
+        <v>685526</v>
       </c>
       <c r="R14" t="n">
-        <v>7093541</v>
+        <v>7093627</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
+          <t>1 substratenheter # tall # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69298998</v>
+        <v>69298997</v>
       </c>
       <c r="B15" t="n">
-        <v>5492</v>
+        <v>78647</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2068,21 +2068,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>101410</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>685526</v>
+        <v>685558</v>
       </c>
       <c r="R15" t="n">
-        <v>7093627</v>
+        <v>7093541</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1 substratenheter # tall # Pinus sylvestris</t>
+          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>

--- a/artfynd/Björnberget N artfynd.xlsx
+++ b/artfynd/Björnberget N artfynd.xlsx
@@ -1588,45 +1588,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56822967</v>
+        <v>69298999</v>
       </c>
       <c r="B11" t="n">
-        <v>95594</v>
+        <v>91406</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2809</v>
+        <v>1503</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Björnberget norr, Ång</t>
+          <t>Grundtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>685697</v>
+        <v>685500</v>
       </c>
       <c r="R11" t="n">
-        <v>7093433</v>
+        <v>7093566</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1653,12 +1653,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2017-09-02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2017-09-02</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Observerad och artbestämd av Ulrika Westling. Inrapporterad av Johan Kjetselberg.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1673,62 +1678,80 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69298999</v>
+        <v>56822967</v>
       </c>
       <c r="B12" t="n">
-        <v>91406</v>
+        <v>95594</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1503</v>
+        <v>2809</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Grundtjärnen, Ång</t>
+          <t>Björnberget norr, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>685500</v>
+        <v>685697</v>
       </c>
       <c r="R12" t="n">
-        <v>7093566</v>
+        <v>7093433</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1755,17 +1778,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2017-09-02</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2017-09-02</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Observerad och artbestämd av Ulrika Westling. Inrapporterad av Johan Kjetselberg.</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1780,35 +1798,17 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1 substratenheter # tallåga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
